--- a/data/pca/factorExposure/factorExposure_2009-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01733173295207585</v>
+        <v>0.0168020124929162</v>
       </c>
       <c r="C2">
-        <v>0.002059597056389491</v>
+        <v>0.001386844518593787</v>
       </c>
       <c r="D2">
-        <v>-0.01055275412053744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01087872313537189</v>
+      </c>
+      <c r="E2">
+        <v>-0.001075380135885445</v>
+      </c>
+      <c r="F2">
+        <v>-0.01879522994139666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08622394879878657</v>
+        <v>0.08931196919529334</v>
       </c>
       <c r="C4">
-        <v>0.0200001476532918</v>
+        <v>0.01562200684173725</v>
       </c>
       <c r="D4">
-        <v>-0.08120820401784162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08445860373372401</v>
+      </c>
+      <c r="E4">
+        <v>-0.03627045028729729</v>
+      </c>
+      <c r="F4">
+        <v>0.04300525319035933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0001485545018648002</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9.084281194085206e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0003011741703761903</v>
+      </c>
+      <c r="E5">
+        <v>1.929339591282005e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0006046348245298803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1598722416450498</v>
+        <v>0.1661387683272785</v>
       </c>
       <c r="C6">
-        <v>0.03626517339370697</v>
+        <v>0.03463221157756739</v>
       </c>
       <c r="D6">
-        <v>0.02505071152904364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01584409713782675</v>
+      </c>
+      <c r="E6">
+        <v>-0.01988934816779122</v>
+      </c>
+      <c r="F6">
+        <v>0.05704973255607381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05535805118037839</v>
+        <v>0.06005097000218465</v>
       </c>
       <c r="C7">
-        <v>0.001678450564916709</v>
+        <v>-0.00138600371145745</v>
       </c>
       <c r="D7">
-        <v>-0.04700405210060421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05206359644829583</v>
+      </c>
+      <c r="E7">
+        <v>-0.01931825547919711</v>
+      </c>
+      <c r="F7">
+        <v>0.05162391035152359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05775502838752917</v>
+        <v>0.05481741533574973</v>
       </c>
       <c r="C8">
-        <v>-0.009725208324884556</v>
+        <v>-0.01150970620413688</v>
       </c>
       <c r="D8">
-        <v>-0.02921479297048213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03181077884161475</v>
+      </c>
+      <c r="E8">
+        <v>-0.01463478406203526</v>
+      </c>
+      <c r="F8">
+        <v>-0.03431746736477546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06707182378061251</v>
+        <v>0.06972859883603147</v>
       </c>
       <c r="C9">
-        <v>0.01569427818022143</v>
+        <v>0.01130916794293288</v>
       </c>
       <c r="D9">
-        <v>-0.08446449208549794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0879623904868424</v>
+      </c>
+      <c r="E9">
+        <v>-0.03364496885013323</v>
+      </c>
+      <c r="F9">
+        <v>0.06414978404518659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09190583446960816</v>
+        <v>0.08950331691167822</v>
       </c>
       <c r="C10">
-        <v>0.02231636817551465</v>
+        <v>0.02479647857552247</v>
       </c>
       <c r="D10">
-        <v>0.1649253034758713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1552061622174918</v>
+      </c>
+      <c r="E10">
+        <v>0.04174403463414775</v>
+      </c>
+      <c r="F10">
+        <v>-0.07689502984792607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08760538291925629</v>
+        <v>0.08485477091551749</v>
       </c>
       <c r="C11">
-        <v>0.01733273939276059</v>
+        <v>0.01231107579835076</v>
       </c>
       <c r="D11">
-        <v>-0.1185410495773527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1234769344565941</v>
+      </c>
+      <c r="E11">
+        <v>-0.0617187256119424</v>
+      </c>
+      <c r="F11">
+        <v>0.01581685605068698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09270390941257628</v>
+        <v>0.0879230732932865</v>
       </c>
       <c r="C12">
-        <v>0.01535231868545453</v>
+        <v>0.009744736623568083</v>
       </c>
       <c r="D12">
-        <v>-0.1240126599781192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1365455549742427</v>
+      </c>
+      <c r="E12">
+        <v>-0.06471106500897422</v>
+      </c>
+      <c r="F12">
+        <v>0.01884918157790275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04514575713878643</v>
+        <v>0.0453707493983814</v>
       </c>
       <c r="C13">
-        <v>0.007700056912817942</v>
+        <v>0.004176988374355269</v>
       </c>
       <c r="D13">
-        <v>-0.05060372533285253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05804981134209721</v>
+      </c>
+      <c r="E13">
+        <v>-0.003213091016707885</v>
+      </c>
+      <c r="F13">
+        <v>0.0153383244900274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01818920708902249</v>
+        <v>0.02151818307361699</v>
       </c>
       <c r="C14">
-        <v>0.01464231015987544</v>
+        <v>0.01368152710050322</v>
       </c>
       <c r="D14">
-        <v>-0.03198404547727368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03511198443668798</v>
+      </c>
+      <c r="E14">
+        <v>-0.02684209171875533</v>
+      </c>
+      <c r="F14">
+        <v>0.02092493579883575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0341010722750715</v>
+        <v>0.03486353225275012</v>
       </c>
       <c r="C15">
-        <v>0.008488160588655508</v>
+        <v>0.006655281891758765</v>
       </c>
       <c r="D15">
-        <v>-0.05052593980303961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05107999179413888</v>
+      </c>
+      <c r="E15">
+        <v>-0.01729245481871763</v>
+      </c>
+      <c r="F15">
+        <v>0.03016421600152484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06890158714294201</v>
+        <v>0.06803409846788833</v>
       </c>
       <c r="C16">
-        <v>0.006283186207027359</v>
+        <v>0.001295957035284938</v>
       </c>
       <c r="D16">
-        <v>-0.1195747889895144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1311753755840524</v>
+      </c>
+      <c r="E16">
+        <v>-0.07436572559716803</v>
+      </c>
+      <c r="F16">
+        <v>0.01733917821296241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002343008323501988</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001074752150211285</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001935681419403434</v>
+      </c>
+      <c r="E17">
+        <v>-0.005001720913639912</v>
+      </c>
+      <c r="F17">
+        <v>-0.004231419909950121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02880263571931379</v>
+        <v>0.04604625407911966</v>
       </c>
       <c r="C18">
-        <v>-0.0001970687480590682</v>
+        <v>-0.0001123300281950488</v>
       </c>
       <c r="D18">
-        <v>-0.02229910632703496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02145714770539943</v>
+      </c>
+      <c r="E18">
+        <v>0.002462185811432394</v>
+      </c>
+      <c r="F18">
+        <v>-0.016255463675592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06265669596825844</v>
+        <v>0.06177521765154079</v>
       </c>
       <c r="C20">
-        <v>0.005346081387172692</v>
+        <v>0.002353300537069442</v>
       </c>
       <c r="D20">
-        <v>-0.07861962083781043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08294445706728633</v>
+      </c>
+      <c r="E20">
+        <v>-0.07101341368342455</v>
+      </c>
+      <c r="F20">
+        <v>0.03519043339391841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04003408065903877</v>
+        <v>0.04242741734178789</v>
       </c>
       <c r="C21">
-        <v>0.009948405438729558</v>
+        <v>0.007353261978101283</v>
       </c>
       <c r="D21">
-        <v>-0.04012191969896416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03987343016480609</v>
+      </c>
+      <c r="E21">
+        <v>-0.003640727929453212</v>
+      </c>
+      <c r="F21">
+        <v>-0.01899109093108202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04569640284657784</v>
+        <v>0.04462738957882421</v>
       </c>
       <c r="C22">
-        <v>0.003883284394982583</v>
+        <v>0.00255226280540928</v>
       </c>
       <c r="D22">
-        <v>-0.002079955152239491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01198329961138818</v>
+      </c>
+      <c r="E22">
+        <v>-0.03207559943166967</v>
+      </c>
+      <c r="F22">
+        <v>-0.1023001389684532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04570499646916927</v>
+        <v>0.04463473726122777</v>
       </c>
       <c r="C23">
-        <v>0.003885583196116694</v>
+        <v>0.002554449413344403</v>
       </c>
       <c r="D23">
-        <v>-0.002071125461993459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01197648566290006</v>
+      </c>
+      <c r="E23">
+        <v>-0.03208304839988324</v>
+      </c>
+      <c r="F23">
+        <v>-0.1023412787024328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07659241836746476</v>
+        <v>0.07448917584872145</v>
       </c>
       <c r="C24">
-        <v>0.007190529829451663</v>
+        <v>0.002443863672838375</v>
       </c>
       <c r="D24">
-        <v>-0.1218657941519142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1252378075582564</v>
+      </c>
+      <c r="E24">
+        <v>-0.05907597188194146</v>
+      </c>
+      <c r="F24">
+        <v>0.02672936765406289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08175480113555945</v>
+        <v>0.07924420687992699</v>
       </c>
       <c r="C25">
-        <v>0.009820200961565087</v>
+        <v>0.005409041138980359</v>
       </c>
       <c r="D25">
-        <v>-0.1099447768292753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1137157928948311</v>
+      </c>
+      <c r="E25">
+        <v>-0.04662780051359688</v>
+      </c>
+      <c r="F25">
+        <v>0.0218662240812153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05638465587831257</v>
+        <v>0.06154776414183331</v>
       </c>
       <c r="C26">
-        <v>0.01905917932396338</v>
+        <v>0.0162124419708056</v>
       </c>
       <c r="D26">
-        <v>-0.04726075824344886</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05430614487754681</v>
+      </c>
+      <c r="E26">
+        <v>-0.03791094451337547</v>
+      </c>
+      <c r="F26">
+        <v>-0.009325324565977202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.147929219033065</v>
+        <v>0.1531514722007376</v>
       </c>
       <c r="C28">
-        <v>0.0256019078762434</v>
+        <v>0.03046851977839982</v>
       </c>
       <c r="D28">
-        <v>0.2481480652986918</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2463809973625932</v>
+      </c>
+      <c r="E28">
+        <v>0.06372258718718068</v>
+      </c>
+      <c r="F28">
+        <v>0.01848454382306036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02516740516191844</v>
+        <v>0.02765284721326518</v>
       </c>
       <c r="C29">
-        <v>0.009862241531679763</v>
+        <v>0.009082632047763158</v>
       </c>
       <c r="D29">
-        <v>-0.03111409952333391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03299812261144198</v>
+      </c>
+      <c r="E29">
+        <v>-0.01977303498420422</v>
+      </c>
+      <c r="F29">
+        <v>-0.01860768936710233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05246599887297063</v>
+        <v>0.05164577660559314</v>
       </c>
       <c r="C30">
-        <v>0.006187341474677861</v>
+        <v>0.002328900821460267</v>
       </c>
       <c r="D30">
-        <v>-0.08073850732360496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08579702589766862</v>
+      </c>
+      <c r="E30">
+        <v>-0.02324915472916146</v>
+      </c>
+      <c r="F30">
+        <v>0.1128520429443181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05103707422126103</v>
+        <v>0.05173742885020088</v>
       </c>
       <c r="C31">
-        <v>0.0189145741853489</v>
+        <v>0.01699487927866829</v>
       </c>
       <c r="D31">
-        <v>-0.0257940352533821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02844772701450473</v>
+      </c>
+      <c r="E31">
+        <v>-0.03298981054666514</v>
+      </c>
+      <c r="F31">
+        <v>-0.01162725888329923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04512822853784465</v>
+        <v>0.05002856119048744</v>
       </c>
       <c r="C32">
-        <v>0.001904540849998941</v>
+        <v>-0.001066911073540957</v>
       </c>
       <c r="D32">
-        <v>-0.0327446184004209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0368036594951346</v>
+      </c>
+      <c r="E32">
+        <v>-0.03325347135633921</v>
+      </c>
+      <c r="F32">
+        <v>-0.0008058169399490796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08679270937947677</v>
+        <v>0.08816046408427788</v>
       </c>
       <c r="C33">
-        <v>0.01380584197492348</v>
+        <v>0.008393489073285968</v>
       </c>
       <c r="D33">
-        <v>-0.0943310315393425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1058383890007499</v>
+      </c>
+      <c r="E33">
+        <v>-0.06101317587646407</v>
+      </c>
+      <c r="F33">
+        <v>0.02617607462135687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06480176930527157</v>
+        <v>0.06451734708199613</v>
       </c>
       <c r="C34">
-        <v>0.01544849130259215</v>
+        <v>0.01084233395313359</v>
       </c>
       <c r="D34">
-        <v>-0.1008069801211447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1123746484072236</v>
+      </c>
+      <c r="E34">
+        <v>-0.04764575175382052</v>
+      </c>
+      <c r="F34">
+        <v>0.04111355132864487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02715544986116827</v>
+        <v>0.02843089399870437</v>
       </c>
       <c r="C35">
-        <v>0.005202867996991913</v>
+        <v>0.004564418324401478</v>
       </c>
       <c r="D35">
-        <v>-0.008892067973616916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01209112242825445</v>
+      </c>
+      <c r="E35">
+        <v>-0.01969131403054238</v>
+      </c>
+      <c r="F35">
+        <v>-0.002362355086059207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0233300237573917</v>
+        <v>0.02805960444076942</v>
       </c>
       <c r="C36">
-        <v>0.008437989306936663</v>
+        <v>0.007512021414393527</v>
       </c>
       <c r="D36">
-        <v>-0.04074997303717007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04363767163849108</v>
+      </c>
+      <c r="E36">
+        <v>-0.02480849935517169</v>
+      </c>
+      <c r="F36">
+        <v>0.01925476100445624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002960050844719933</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0009015451624035149</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003028322920594824</v>
+      </c>
+      <c r="E37">
+        <v>-0.001381022006737315</v>
+      </c>
+      <c r="F37">
+        <v>-0.0004256569397770166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1023168187897555</v>
+        <v>0.09368111112339191</v>
       </c>
       <c r="C39">
-        <v>0.02202207932886576</v>
+        <v>0.0160043828855462</v>
       </c>
       <c r="D39">
-        <v>-0.1549192627456393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1536175911080977</v>
+      </c>
+      <c r="E39">
+        <v>-0.07464329501819798</v>
+      </c>
+      <c r="F39">
+        <v>0.005555728397825649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04319848688497471</v>
+        <v>0.04846030775185783</v>
       </c>
       <c r="C40">
-        <v>0.01185196481866278</v>
+        <v>0.01029252221131838</v>
       </c>
       <c r="D40">
-        <v>-0.032889565014767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03954483610099831</v>
+      </c>
+      <c r="E40">
+        <v>-0.004894907798527841</v>
+      </c>
+      <c r="F40">
+        <v>-0.02351166038956114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0258025509227407</v>
+        <v>0.02813045196703843</v>
       </c>
       <c r="C41">
-        <v>0.008323431945664811</v>
+        <v>0.007917438182556929</v>
       </c>
       <c r="D41">
-        <v>-0.01190156878237199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01341606656090624</v>
+      </c>
+      <c r="E41">
+        <v>-0.01356843618529437</v>
+      </c>
+      <c r="F41">
+        <v>-0.01264725516923928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04045318954275703</v>
+        <v>0.03938077514059988</v>
       </c>
       <c r="C43">
-        <v>0.009160727365842504</v>
+        <v>0.008235402550904058</v>
       </c>
       <c r="D43">
-        <v>-0.02209336889382675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02296476134853878</v>
+      </c>
+      <c r="E43">
+        <v>-0.02891076347776303</v>
+      </c>
+      <c r="F43">
+        <v>-0.02475331784861408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06270509684354877</v>
+        <v>0.06992255228607391</v>
       </c>
       <c r="C44">
-        <v>0.0224785128826741</v>
+        <v>0.01893535161727481</v>
       </c>
       <c r="D44">
-        <v>-0.07594947457484656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08523032445867636</v>
+      </c>
+      <c r="E44">
+        <v>-0.07463702034561458</v>
+      </c>
+      <c r="F44">
+        <v>0.2202928299970344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001120864548851172</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.51016600827114e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>5.85585254240255e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0003215699278770101</v>
+      </c>
+      <c r="F45">
+        <v>0.000233238480299399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02268177282675213</v>
+        <v>0.02517494659176103</v>
       </c>
       <c r="C46">
-        <v>0.005133999120373033</v>
+        <v>0.004235619076553943</v>
       </c>
       <c r="D46">
-        <v>-0.01454914622402502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01750910966407226</v>
+      </c>
+      <c r="E46">
+        <v>-0.03604292284452561</v>
+      </c>
+      <c r="F46">
+        <v>-0.02450467297666074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05412344481697279</v>
+        <v>0.05310226079632055</v>
       </c>
       <c r="C47">
-        <v>0.007414073730657091</v>
+        <v>0.005834339205728622</v>
       </c>
       <c r="D47">
-        <v>-0.01072163397625803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01315665166432094</v>
+      </c>
+      <c r="E47">
+        <v>-0.02461029342333937</v>
+      </c>
+      <c r="F47">
+        <v>-0.04648616681991041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0489157269241739</v>
+        <v>0.05271477294918286</v>
       </c>
       <c r="C48">
-        <v>0.006349651826525782</v>
+        <v>0.003734599166549934</v>
       </c>
       <c r="D48">
-        <v>-0.05583267256199051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0577008418876965</v>
+      </c>
+      <c r="E48">
+        <v>-0.01128289591457752</v>
+      </c>
+      <c r="F48">
+        <v>0.01528070967352941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1947925701611041</v>
+        <v>0.197536814393202</v>
       </c>
       <c r="C49">
-        <v>0.02795714602789643</v>
+        <v>0.02441166281762892</v>
       </c>
       <c r="D49">
-        <v>0.01199638237752659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006231949441116675</v>
+      </c>
+      <c r="E49">
+        <v>-0.01896534283649294</v>
+      </c>
+      <c r="F49">
+        <v>0.05860334688693964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04936265505875177</v>
+        <v>0.05223967207850542</v>
       </c>
       <c r="C50">
-        <v>0.01466829127601207</v>
+        <v>0.01320729211062641</v>
       </c>
       <c r="D50">
-        <v>-0.02494165150691207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02728991768702586</v>
+      </c>
+      <c r="E50">
+        <v>-0.03413792982175252</v>
+      </c>
+      <c r="F50">
+        <v>0.006422228559329539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1516149457856752</v>
+        <v>0.1452905244290373</v>
       </c>
       <c r="C52">
-        <v>0.02502771295541079</v>
+        <v>0.0213128132374328</v>
       </c>
       <c r="D52">
-        <v>-0.04305306833004698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04542052436653354</v>
+      </c>
+      <c r="E52">
+        <v>-0.03426814117352823</v>
+      </c>
+      <c r="F52">
+        <v>0.03710288148288762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1745246337101851</v>
+        <v>0.1674719970097755</v>
       </c>
       <c r="C53">
-        <v>0.02778798635985893</v>
+        <v>0.0253699782967595</v>
       </c>
       <c r="D53">
-        <v>-0.004447297472112706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006867025782269121</v>
+      </c>
+      <c r="E53">
+        <v>-0.04115813658401812</v>
+      </c>
+      <c r="F53">
+        <v>0.08356806858546741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01474966121023716</v>
+        <v>0.01819861307939915</v>
       </c>
       <c r="C54">
-        <v>0.01198860471654664</v>
+        <v>0.01132710646907067</v>
       </c>
       <c r="D54">
-        <v>-0.02827221417204675</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02827696431482764</v>
+      </c>
+      <c r="E54">
+        <v>-0.02241440666433848</v>
+      </c>
+      <c r="F54">
+        <v>-0.003221593194272591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1196140074719407</v>
+        <v>0.1170028927004256</v>
       </c>
       <c r="C55">
-        <v>0.02445684977903398</v>
+        <v>0.02225675182157471</v>
       </c>
       <c r="D55">
-        <v>-0.004776104532159518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01258367546959459</v>
+      </c>
+      <c r="E55">
+        <v>-0.0445266485287966</v>
+      </c>
+      <c r="F55">
+        <v>0.02866015770906894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180354196528583</v>
+        <v>0.1746918879748336</v>
       </c>
       <c r="C56">
-        <v>0.02610116538582686</v>
+        <v>0.02393614867800823</v>
       </c>
       <c r="D56">
-        <v>0.003959039379427332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.000372601601513935</v>
+      </c>
+      <c r="E56">
+        <v>-0.04108427980582908</v>
+      </c>
+      <c r="F56">
+        <v>0.04368689577528155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0454822147759825</v>
+        <v>0.04449197513322106</v>
       </c>
       <c r="C58">
-        <v>0.004436541019022856</v>
+        <v>0.0003802333259424404</v>
       </c>
       <c r="D58">
-        <v>-0.0728642383675259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08151017131528651</v>
+      </c>
+      <c r="E58">
+        <v>-0.04309255539766726</v>
+      </c>
+      <c r="F58">
+        <v>-0.04694245058997291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1692002451531944</v>
+        <v>0.1740296237560557</v>
       </c>
       <c r="C59">
-        <v>0.02591881202614928</v>
+        <v>0.02977634342653014</v>
       </c>
       <c r="D59">
-        <v>0.2127193837435683</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2113261020192707</v>
+      </c>
+      <c r="E59">
+        <v>0.06027219573020116</v>
+      </c>
+      <c r="F59">
+        <v>-0.06617997730527195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2262845694125155</v>
+        <v>0.2208648481649765</v>
       </c>
       <c r="C60">
-        <v>0.008013789267281305</v>
+        <v>0.003454693261551657</v>
       </c>
       <c r="D60">
-        <v>-0.02257631596016472</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02312792892683961</v>
+      </c>
+      <c r="E60">
+        <v>0.01894522421690778</v>
+      </c>
+      <c r="F60">
+        <v>-0.008096389353339268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07433989934383123</v>
+        <v>0.07046734750359235</v>
       </c>
       <c r="C61">
-        <v>0.01564969885646345</v>
+        <v>0.01067857297642399</v>
       </c>
       <c r="D61">
-        <v>-0.1146587596235833</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1180445604942397</v>
+      </c>
+      <c r="E61">
+        <v>-0.04694256246097156</v>
+      </c>
+      <c r="F61">
+        <v>-0.004729185634242833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1716945001181214</v>
+        <v>0.1675248953382051</v>
       </c>
       <c r="C62">
-        <v>0.02898465098721658</v>
+        <v>0.02612904404490708</v>
       </c>
       <c r="D62">
-        <v>-0.002626809130535374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007897708950690883</v>
+      </c>
+      <c r="E62">
+        <v>-0.04454020546171073</v>
+      </c>
+      <c r="F62">
+        <v>0.02523198990286703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04310959196072735</v>
+        <v>0.04784397108212956</v>
       </c>
       <c r="C63">
-        <v>0.006102464565187444</v>
+        <v>0.003507341605586802</v>
       </c>
       <c r="D63">
-        <v>-0.06093452447201494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06915202427933552</v>
+      </c>
+      <c r="E63">
+        <v>-0.03268246359084158</v>
+      </c>
+      <c r="F63">
+        <v>-0.005183905675819392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1138705702131815</v>
+        <v>0.1110875621999887</v>
       </c>
       <c r="C64">
-        <v>0.01921791117615739</v>
+        <v>0.01554130718610707</v>
       </c>
       <c r="D64">
-        <v>-0.04454228026334082</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04853632187196533</v>
+      </c>
+      <c r="E64">
+        <v>-0.03665735112144571</v>
+      </c>
+      <c r="F64">
+        <v>0.01946024629756246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1507273448104759</v>
+        <v>0.1561194390931456</v>
       </c>
       <c r="C65">
-        <v>0.04215709502856865</v>
+        <v>0.04088967986753075</v>
       </c>
       <c r="D65">
-        <v>0.04727894524886411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03672852678668855</v>
+      </c>
+      <c r="E65">
+        <v>-0.01148405019355891</v>
+      </c>
+      <c r="F65">
+        <v>0.05901513210345203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1238469399085398</v>
+        <v>0.1130054059682099</v>
       </c>
       <c r="C66">
-        <v>0.02092687572651199</v>
+        <v>0.01433890074966944</v>
       </c>
       <c r="D66">
-        <v>-0.1381183723312616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1422419206028026</v>
+      </c>
+      <c r="E66">
+        <v>-0.07395244301194584</v>
+      </c>
+      <c r="F66">
+        <v>0.00932961736809766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06013992760607484</v>
+        <v>0.05307249482894422</v>
       </c>
       <c r="C67">
-        <v>0.006514578800570361</v>
+        <v>0.003953877395378773</v>
       </c>
       <c r="D67">
-        <v>-0.05002189865339351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05371290389094306</v>
+      </c>
+      <c r="E67">
+        <v>-0.02400896185728311</v>
+      </c>
+      <c r="F67">
+        <v>-0.08614200827121236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1189487287241056</v>
+        <v>0.1256652601457664</v>
       </c>
       <c r="C68">
-        <v>0.03423546728925723</v>
+        <v>0.04010404232238689</v>
       </c>
       <c r="D68">
-        <v>0.2518141404735297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2512679821618385</v>
+      </c>
+      <c r="E68">
+        <v>0.09123525148120436</v>
+      </c>
+      <c r="F68">
+        <v>0.02983286135261072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03983189474830757</v>
+        <v>0.03909289348590746</v>
       </c>
       <c r="C69">
-        <v>0.003506162941670397</v>
+        <v>0.002442728106828187</v>
       </c>
       <c r="D69">
-        <v>-0.009062123195210648</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009893594625128451</v>
+      </c>
+      <c r="E69">
+        <v>-0.02954914367165024</v>
+      </c>
+      <c r="F69">
+        <v>-0.02190031217033624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06863166208483239</v>
+        <v>0.06986619845298847</v>
       </c>
       <c r="C70">
-        <v>-0.02288885066957196</v>
+        <v>-0.02466677730254286</v>
       </c>
       <c r="D70">
-        <v>-0.03720960002813693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0358023092159515</v>
+      </c>
+      <c r="E70">
+        <v>0.03784340942993342</v>
+      </c>
+      <c r="F70">
+        <v>-0.3807135371884704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1383517717531034</v>
+        <v>0.1460388875140839</v>
       </c>
       <c r="C71">
-        <v>0.03971004751336155</v>
+        <v>0.04539605152519576</v>
       </c>
       <c r="D71">
-        <v>0.2647704489682116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2600693495446569</v>
+      </c>
+      <c r="E71">
+        <v>0.09992871182434361</v>
+      </c>
+      <c r="F71">
+        <v>0.03194503572386215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379357421350391</v>
+        <v>0.1439666786320352</v>
       </c>
       <c r="C72">
-        <v>0.03262191760503608</v>
+        <v>0.03174370132379394</v>
       </c>
       <c r="D72">
-        <v>-0.002638392815875985</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006709607610863654</v>
+      </c>
+      <c r="E72">
+        <v>-0.0474797323071811</v>
+      </c>
+      <c r="F72">
+        <v>0.03545894559201156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.196305430290105</v>
+        <v>0.2004997946059949</v>
       </c>
       <c r="C73">
-        <v>0.0216597115960343</v>
+        <v>0.01654722846016533</v>
       </c>
       <c r="D73">
-        <v>-0.007936297388681958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01558490712185691</v>
+      </c>
+      <c r="E73">
+        <v>-0.06314653381079206</v>
+      </c>
+      <c r="F73">
+        <v>0.01877729129877494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08797441525773783</v>
+        <v>0.08812191619882494</v>
       </c>
       <c r="C74">
-        <v>0.01641786280840034</v>
+        <v>0.01455426783034875</v>
       </c>
       <c r="D74">
-        <v>-0.01043944870012724</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01568479077644445</v>
+      </c>
+      <c r="E74">
+        <v>-0.05063455886375131</v>
+      </c>
+      <c r="F74">
+        <v>0.04802973708567847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1300248823704145</v>
+        <v>0.1225097999429696</v>
       </c>
       <c r="C75">
-        <v>0.03488889936536954</v>
+        <v>0.03161357620917981</v>
       </c>
       <c r="D75">
-        <v>-0.02628240031711443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03180299189065026</v>
+      </c>
+      <c r="E75">
+        <v>-0.06379013784873071</v>
+      </c>
+      <c r="F75">
+        <v>0.01237014105441482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07925445246279354</v>
+        <v>0.09260737237889553</v>
       </c>
       <c r="C77">
-        <v>0.01502963538968608</v>
+        <v>0.01081410499831811</v>
       </c>
       <c r="D77">
-        <v>-0.123078720442923</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1231558413505916</v>
+      </c>
+      <c r="E77">
+        <v>-0.05650226527324516</v>
+      </c>
+      <c r="F77">
+        <v>0.05176696242145263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0966008695682366</v>
+        <v>0.09825412312053519</v>
       </c>
       <c r="C78">
-        <v>0.04400974648078585</v>
+        <v>0.04050689177354833</v>
       </c>
       <c r="D78">
-        <v>-0.115076633820222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1136825520481493</v>
+      </c>
+      <c r="E78">
+        <v>-0.08190789718867839</v>
+      </c>
+      <c r="F78">
+        <v>0.04380137231764028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1680082955081847</v>
+        <v>0.1639379885480601</v>
       </c>
       <c r="C79">
-        <v>0.03227246718146481</v>
+        <v>0.0291102131493257</v>
       </c>
       <c r="D79">
-        <v>-0.01147272195252545</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01699878644792558</v>
+      </c>
+      <c r="E79">
+        <v>-0.05243549900908312</v>
+      </c>
+      <c r="F79">
+        <v>0.006461138369262653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08060287874276249</v>
+        <v>0.07877662249737727</v>
       </c>
       <c r="C80">
-        <v>0.003976152868945128</v>
+        <v>0.001509497810010251</v>
       </c>
       <c r="D80">
-        <v>-0.05053859130312826</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05187658324270531</v>
+      </c>
+      <c r="E80">
+        <v>-0.03763352032833065</v>
+      </c>
+      <c r="F80">
+        <v>-0.04963775127692794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1177558689376672</v>
+        <v>0.1117619416801688</v>
       </c>
       <c r="C81">
-        <v>0.0366666408885555</v>
+        <v>0.03492921501305085</v>
       </c>
       <c r="D81">
-        <v>-0.004490301528688655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01014464286412298</v>
+      </c>
+      <c r="E81">
+        <v>-0.0554199363010392</v>
+      </c>
+      <c r="F81">
+        <v>0.0006113061059395306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1634459965484365</v>
+        <v>0.1614738929004145</v>
       </c>
       <c r="C82">
-        <v>0.03218021723047832</v>
+        <v>0.02971512199801249</v>
       </c>
       <c r="D82">
-        <v>-0.004252212198154313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004686452054095211</v>
+      </c>
+      <c r="E82">
+        <v>-0.04036413682993681</v>
+      </c>
+      <c r="F82">
+        <v>0.08687033172319557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05572060976296457</v>
+        <v>0.05164708831817271</v>
       </c>
       <c r="C83">
-        <v>0.00551717136588681</v>
+        <v>0.00356942487686858</v>
       </c>
       <c r="D83">
-        <v>-0.03864331460054551</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03852791238941979</v>
+      </c>
+      <c r="E83">
+        <v>0.01025893627325922</v>
+      </c>
+      <c r="F83">
+        <v>-0.02883784914358327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05680866067134947</v>
+        <v>0.05311305051384672</v>
       </c>
       <c r="C84">
-        <v>0.01391416760572458</v>
+        <v>0.01102344850143422</v>
       </c>
       <c r="D84">
-        <v>-0.07370360230149747</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07460084149460235</v>
+      </c>
+      <c r="E84">
+        <v>-0.02077220043354455</v>
+      </c>
+      <c r="F84">
+        <v>0.002173908789251098</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400085303278859</v>
+        <v>0.1346359661712922</v>
       </c>
       <c r="C85">
-        <v>0.03555589928354785</v>
+        <v>0.03316009889915526</v>
       </c>
       <c r="D85">
-        <v>-0.007634760564248898</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01174860851184166</v>
+      </c>
+      <c r="E85">
+        <v>-0.04945552235444691</v>
+      </c>
+      <c r="F85">
+        <v>0.05499748644531191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08065577193848672</v>
+        <v>0.07843177415301043</v>
       </c>
       <c r="C86">
-        <v>-0.005041931864032208</v>
+        <v>-0.007971940417582443</v>
       </c>
       <c r="D86">
-        <v>-0.02313824148368514</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05108347663222135</v>
+      </c>
+      <c r="E86">
+        <v>-0.08195387754904397</v>
+      </c>
+      <c r="F86">
+        <v>-0.7905373190592923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0893004956691925</v>
+        <v>0.08925504850257407</v>
       </c>
       <c r="C87">
-        <v>0.02692073109141205</v>
+        <v>0.02202920971303156</v>
       </c>
       <c r="D87">
-        <v>-0.08530936628512739</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08911575360530917</v>
+      </c>
+      <c r="E87">
+        <v>0.05495042229652788</v>
+      </c>
+      <c r="F87">
+        <v>0.08821107945284701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06182971515405918</v>
+        <v>0.06093207566737627</v>
       </c>
       <c r="C88">
-        <v>0.006920048229280124</v>
+        <v>0.004312204620242949</v>
       </c>
       <c r="D88">
-        <v>-0.05383923852064593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05338985897472877</v>
+      </c>
+      <c r="E88">
+        <v>-0.03522332879478719</v>
+      </c>
+      <c r="F88">
+        <v>0.0006073287962231898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1280614154546328</v>
+        <v>0.1334079887505661</v>
       </c>
       <c r="C89">
-        <v>0.01471782613198463</v>
+        <v>0.02013119218616686</v>
       </c>
       <c r="D89">
-        <v>0.228908137388522</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2338763923261269</v>
+      </c>
+      <c r="E89">
+        <v>0.0948404457082604</v>
+      </c>
+      <c r="F89">
+        <v>0.01786970714787978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1501338081076969</v>
+        <v>0.1616283706700553</v>
       </c>
       <c r="C90">
-        <v>0.03634571437796786</v>
+        <v>0.04276024197785092</v>
       </c>
       <c r="D90">
-        <v>0.2539441769014448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2579390741341811</v>
+      </c>
+      <c r="E90">
+        <v>0.120167552029158</v>
+      </c>
+      <c r="F90">
+        <v>0.02366235573930863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1254287105459147</v>
+        <v>0.1211222166057996</v>
       </c>
       <c r="C91">
-        <v>0.02624928918004769</v>
+        <v>0.02498740876850855</v>
       </c>
       <c r="D91">
-        <v>0.02010226973984935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01554966259169832</v>
+      </c>
+      <c r="E91">
+        <v>-0.05687638778039493</v>
+      </c>
+      <c r="F91">
+        <v>-0.02599906247694543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1507939813271199</v>
+        <v>0.1544651965450376</v>
       </c>
       <c r="C92">
-        <v>0.02738595696206534</v>
+        <v>0.0332101268431115</v>
       </c>
       <c r="D92">
-        <v>0.27943522464253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2832875192669616</v>
+      </c>
+      <c r="E92">
+        <v>0.1107672206873541</v>
+      </c>
+      <c r="F92">
+        <v>0.008324569813512409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.154536310530499</v>
+        <v>0.1639201046348383</v>
       </c>
       <c r="C93">
-        <v>0.032280708877459</v>
+        <v>0.03738282818556945</v>
       </c>
       <c r="D93">
-        <v>0.2477154697394099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2515297482866879</v>
+      </c>
+      <c r="E93">
+        <v>0.07378687883644133</v>
+      </c>
+      <c r="F93">
+        <v>0.02162304496409078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1289938959838476</v>
+        <v>0.1217412825138864</v>
       </c>
       <c r="C94">
-        <v>0.03090251422859442</v>
+        <v>0.02724696628873593</v>
       </c>
       <c r="D94">
-        <v>-0.03880385446266868</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04287047722526622</v>
+      </c>
+      <c r="E94">
+        <v>-0.06580519747030113</v>
+      </c>
+      <c r="F94">
+        <v>0.01591821811364081</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1255284646189544</v>
+        <v>0.1286299511373081</v>
       </c>
       <c r="C95">
-        <v>0.01286193974302281</v>
+        <v>0.007376731734541303</v>
       </c>
       <c r="D95">
-        <v>-0.09390548858435369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1052626556591216</v>
+      </c>
+      <c r="E95">
+        <v>-0.07096139346814521</v>
+      </c>
+      <c r="F95">
+        <v>-0.02612916006073943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1577199010810484</v>
+        <v>0.143123126681433</v>
       </c>
       <c r="C96">
-        <v>-0.9815727041373962</v>
+        <v>-0.982698304482739</v>
       </c>
       <c r="D96">
-        <v>0.03534973257495303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05845047728083397</v>
+      </c>
+      <c r="E96">
+        <v>-0.05132343308047756</v>
+      </c>
+      <c r="F96">
+        <v>0.04532204852080363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1907527441479184</v>
+        <v>0.1939895593112534</v>
       </c>
       <c r="C97">
-        <v>0.002978570238830664</v>
+        <v>0.0004496717188867169</v>
       </c>
       <c r="D97">
-        <v>0.01954401450335376</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02474694717236667</v>
+      </c>
+      <c r="E97">
+        <v>-0.0152622895882239</v>
+      </c>
+      <c r="F97">
+        <v>-0.1879688110374176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.194611217028402</v>
+        <v>0.2003743613812922</v>
       </c>
       <c r="C98">
-        <v>0.01636359073976125</v>
+        <v>0.01130022442228078</v>
       </c>
       <c r="D98">
-        <v>-0.01075714931906334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0132205913750021</v>
+      </c>
+      <c r="E98">
+        <v>0.09369076134026035</v>
+      </c>
+      <c r="F98">
+        <v>-0.08960835102387182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05768904301723658</v>
+        <v>0.05753474978328102</v>
       </c>
       <c r="C99">
-        <v>4.057130354360108e-05</v>
+        <v>-0.002187008544752872</v>
       </c>
       <c r="D99">
-        <v>-0.04364910153018915</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04861148065509847</v>
+      </c>
+      <c r="E99">
+        <v>-0.0332903346185676</v>
+      </c>
+      <c r="F99">
+        <v>-0.006847679116459216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.145586479604066</v>
+        <v>0.1346369624257729</v>
       </c>
       <c r="C100">
-        <v>-0.03535128404956538</v>
+        <v>-0.04535104410289347</v>
       </c>
       <c r="D100">
-        <v>-0.4334561487302101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3891519456660755</v>
+      </c>
+      <c r="E100">
+        <v>0.8816693347822239</v>
+      </c>
+      <c r="F100">
+        <v>-0.004959018931284197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0251757551627904</v>
+        <v>0.02771177605421187</v>
       </c>
       <c r="C101">
-        <v>0.009874483352904915</v>
+        <v>0.009115750088734291</v>
       </c>
       <c r="D101">
-        <v>-0.03063774844998578</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03254063267129764</v>
+      </c>
+      <c r="E101">
+        <v>-0.01917744251309161</v>
+      </c>
+      <c r="F101">
+        <v>-0.02121023801629524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
